--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Certificate-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9718113-DA6B-43BA-8BCB-4380FBD489DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F7F7D-8240-42EA-A234-BA2A1CE5BAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="793">
   <si>
     <t>Emails</t>
   </si>
@@ -2406,31 +2406,13 @@
   </si>
   <si>
     <t>Chandramouli das</t>
-  </si>
-  <si>
-    <t>as899533@gmail.com</t>
-  </si>
-  <si>
-    <t>soubhagyaanku08@gmail.com</t>
-  </si>
-  <si>
-    <t>astha8862@gmail.com</t>
-  </si>
-  <si>
-    <t>Aman Sharma</t>
-  </si>
-  <si>
-    <t>soumojit sur</t>
-  </si>
-  <si>
-    <t>Soubhagya Basu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2462,6 +2444,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2513,10 +2503,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2544,8 +2535,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2827,7 +2822,7 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2845,536 +2840,279 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>379</v>
+      <c r="A2" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>378</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>796</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>587</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>471</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>489</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>594</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>596</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>501</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>487</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>797</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>557</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>503</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>302</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>670</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>798</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>357</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>410</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>592</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>624</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>578</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>610</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>635</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>455</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>652</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>496</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>363</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>628</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>511</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>513</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>544</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>614</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>504</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>329</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>448</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>443</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>485</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>509</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>519</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>613</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>407</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>529</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>511</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>614</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>483</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>498</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>398</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>360</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>496</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{188D700F-C369-4948-92FD-62DCC0D27CB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
